--- a/biology/Zoologie/Ammoxenus_coccineus/Ammoxenus_coccineus.xlsx
+++ b/biology/Zoologie/Ammoxenus_coccineus/Ammoxenus_coccineus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ammoxenus coccineus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ammoxenus coccineus est une espèce d'araignées aranéomorphes de la famille des Gnaphosidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre en Namibie, en Afrique du Sud, au Botswana et en Zambie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Namibie, en Afrique du Sud, au Botswana et en Zambie.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La femelle holotype mesure 5,5 mm[2].
-Les mâles mesurent de 2,8 à 4,4 mm et les femelles de 4,9 à 6,5 mm[3].
-Ammoxenus coccineus est une araignée termitivore[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La femelle holotype mesure 5,5 mm.
+Les mâles mesurent de 2,8 à 4,4 mm et les femelles de 4,9 à 6,5 mm.
+Ammoxenus coccineus est une araignée termitivore.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Simon en 1893.
-Ammoxenus fallopius[5] a été placée en synonymie par Dippenaar et Meyer en 1980[3].
+Ammoxenus fallopius a été placée en synonymie par Dippenaar et Meyer en 1980.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Simon, 1893 : Histoire naturelle des araignées. Paris, vol. 1, p. 257-488 (texte intégral).</t>
         </is>
